--- a/Documents/dfu_latest_match_validation.xlsx
+++ b/Documents/dfu_latest_match_validation.xlsx
@@ -10720,7 +10720,7 @@
     <t>{'Assessing/Assessing_18133630-f6af-4c2e-840a-b56dd5716d2d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_206-007_Right_Plantar_1_LM_Assessing.png', 'Assessing/Assessing_28139f75-969f-4bee-90c1-4d628ac9c9b5.tif'}</t>
+    <t>{'Assessing/Assessing_28139f75-969f-4bee-90c1-4d628ac9c9b5.tif', 'Assessing/Assessing_DFU_Patient_206-007_Right_Plantar_1_LM_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_27232b67-7bd9-4c9f-9898-07b694d7d683.tif'}</t>
@@ -10816,7 +10816,7 @@
     <t>{'Assessing/Assessing_f1bb3714-5d98-4452-ab2c-ccf18d0ff49f.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_cbf300b9-85e6-4fea-a7c4-743165d6144d.tif', 'Assessing/Assessing_cbf300b9-85e6-4fea-a7c4-743165d6144d_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_cbf300b9-85e6-4fea-a7c4-743165d6144d_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png', 'Assessing/Assessing_cbf300b9-85e6-4fea-a7c4-743165d6144d.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_9a370903-403f-4fb1-9722-30b2ea526bf6.tif'}</t>
@@ -10885,7 +10885,7 @@
     <t>{'Assessing/Assessing_7a62a94b-c40d-4138-b5f9-279451a26852.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png', 'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1.tif'}</t>
+    <t>{'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1.tif', 'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_d15bbb8c-db25-4234-b050-1607968da39b.tif'}</t>
@@ -10903,7 +10903,7 @@
     <t>{'Assessing/Assessing_6bbb5bf3-b208-43d2-8245-0cb545669a48.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace.tif', 'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace_DFU_Patient_207-001_Right_PlantarToes_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace_DFU_Patient_207-001_Right_PlantarToes_1_IB_Assessing.png', 'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_dd20244e-778d-45df-92ee-b8dc68da0762.tif'}</t>
@@ -11002,7 +11002,7 @@
     <t>{'Assessing/Assessing_3e44c4aa-cbab-4018-9853-b88531b3bbce.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b.tif', 'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b_DFU_Patient_207-002_Right_Plantar_1_IMB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b_DFU_Patient_207-002_Right_Plantar_1_IMB_Assessing.png', 'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_2d79afc1-1242-49b2-b2d1-42c97ce8cbd2.tif'}</t>
@@ -11077,7 +11077,7 @@
     <t>{'Assessing/Assessing_d59448e2-95e4-4b08-a57c-f64102464e6c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_a89ac6c2-8c66-4ca2-ac9c-e733b63e58e6.tif', 'Assessing/Assessing_a89ac6c2-8c66-4ca2-ac9c-e733b63e58e6_DFU_Patient_207-005_Right_Plantar_1_IMB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_a89ac6c2-8c66-4ca2-ac9c-e733b63e58e6_DFU_Patient_207-005_Right_Plantar_1_IMB_Assessing.png', 'Assessing/Assessing_a89ac6c2-8c66-4ca2-ac9c-e733b63e58e6.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_7eb3ef00-03b3-4649-bcd6-e7152f7bacfa.tif'}</t>
@@ -11107,13 +11107,13 @@
     <t>{'Assessing/Assessing_5d514d92-e102-46be-aece-3d1a1daffc9c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_207-005_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_527f4b93-9a9e-4e5c-a480-9e5efd83d952.tif'}</t>
+    <t>{'Assessing/Assessing_527f4b93-9a9e-4e5c-a480-9e5efd83d952.tif', 'Assessing/Assessing_DFU_Patient_207-005_Right_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_4da093ac-1ae9-418d-8af9-71226899fd98.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_207-005_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_5f9ecf41-725f-4a58-b358-bb18c0a0d510.tif'}</t>
+    <t>{'Assessing/Assessing_5f9ecf41-725f-4a58-b358-bb18c0a0d510.tif', 'Assessing/Assessing_DFU_Patient_207-005_Right_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_fd1e5eda-6c6a-4216-b1c4-363b3f5ef61b.tif'}</t>
@@ -11149,7 +11149,7 @@
     <t>{'Assessing/Assessing_4476155f-0f9e-4ccd-b120-72e926168125.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_5d4381e1-3c93-4ae6-a361-7f6ab4c03204.tif', 'Assessing/Assessing_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_5d4381e1-3c93-4ae6-a361-7f6ab4c03204.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_710fffc2-5be3-4ca5-a232-af08dc2107d3.tif'}</t>
@@ -11269,7 +11269,7 @@
     <t>{'Assessing/Assessing_0094031f-4693-490a-b518-d72edf3651b0.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a.tif', 'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_78fbe015-0a67-4483-82fb-005fcdf26e55.tif'}</t>
@@ -11281,7 +11281,7 @@
     <t>{'Assessing/Assessing_6c9ddffd-9e65-4f4d-8ba1-8bb31ebc0fb2.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946.tif', 'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_64a227a1-32ab-44e5-b440-fbbdae6bf89b.tif'}</t>
@@ -11347,7 +11347,7 @@
     <t>{'Assessing/Assessing_b8facd26-b1ae-40cd-b747-577b88948c0f.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1_DFU_Patient_208-012_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1.tif'}</t>
+    <t>{'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1.tif', 'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1_DFU_Patient_208-012_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_2c7d5b11-4c1f-48c2-8bd6-744fd5458614.tif'}</t>
@@ -11497,7 +11497,7 @@
     <t>{'Assessing/Assessing_015f31d1-5022-4928-a900-342a6c8ff737.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_08dcf644-82dc-419c-a57e-c40fca093c8a_DFU_Patient_208-002_Right_PlantarToes_1_IMB_Assessing.png', 'Assessing/Assessing_08dcf644-82dc-419c-a57e-c40fca093c8a.tif'}</t>
+    <t>{'Assessing/Assessing_08dcf644-82dc-419c-a57e-c40fca093c8a.tif', 'Assessing/Assessing_08dcf644-82dc-419c-a57e-c40fca093c8a_DFU_Patient_208-002_Right_PlantarToes_1_IMB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_6686cce3-351a-4745-a4ba-4ca35bc16411.tif'}</t>
@@ -11614,7 +11614,7 @@
     <t>{'Assessing/Assessing_588d5075-4500-4bd2-9b53-441f8f2ab6f5.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_1831a4b3-2a29-42ec-9959-1d9ee8168f7e_DFU_Patient_208-003_Right_Plantar_1_IMB_Assessing.png', 'Assessing/Assessing_1831a4b3-2a29-42ec-9959-1d9ee8168f7e.tif'}</t>
+    <t>{'Assessing/Assessing_1831a4b3-2a29-42ec-9959-1d9ee8168f7e.tif', 'Assessing/Assessing_1831a4b3-2a29-42ec-9959-1d9ee8168f7e_DFU_Patient_208-003_Right_Plantar_1_IMB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_b2800936-f1bb-4a9d-b863-a3716106a745.tif'}</t>
@@ -11668,7 +11668,7 @@
     <t>{'Assessing/Assessing_bc3d058a-a341-4870-ba3d-8b029805948c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5_DFU_Patient_208-005_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5.tif'}</t>
+    <t>{'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5.tif', 'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5_DFU_Patient_208-005_Right_Plantar_1_BR_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_74f840ad-2bdb-417f-bd1a-cf8d5b683abe.tif'}</t>
@@ -11722,7 +11722,7 @@
     <t>{'Assessing/Assessing_2f23ed7e-2bc9-4d93-840b-decd30c04863.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c.tif', 'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_22232daa-f865-46d6-b8fe-6756ce9022e7.tif'}</t>
@@ -11740,7 +11740,7 @@
     <t>{'Assessing/Assessing_b441550c-d3e5-44d2-b3c0-47e529426a0d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_62edb1f7-33a8-4493-ac46-2b154dbab904.tif', 'Assessing/Assessing_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_62edb1f7-33a8-4493-ac46-2b154dbab904.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_01fba1a3-675b-415f-8c54-474e6c0c5a8b.tif'}</t>
@@ -11773,7 +11773,7 @@
     <t>{'Assessing/Assessing_df7a116f-d873-4811-ae13-d5d7ae25e1ca.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160.tif'}</t>
+    <t>{'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160.tif', 'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_476c24c0-5a74-4519-a076-f77d76aefeaf.tif', 'Assessing/Assessing_476c24c0-5a74-4519-a076-f77d76aefeaf_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png'}</t>
@@ -11908,7 +11908,7 @@
     <t>{'Assessing/Assessing_d6f7fe31-79c5-4856-8856-dcfc4e4feda2.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18.tif'}</t>
+    <t>{'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18.tif', 'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_eb13dad7-bffb-4edf-b786-3daeac51f112.tif'}</t>
@@ -12112,7 +12112,7 @@
     <t>{'Assessing/Assessing_dd1ca48c-ab9e-41c4-b4ff-a55b77c07f42.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_b0197e8e-7fa3-4259-9ef3-dfca342359c9.tif'}</t>
+    <t>{'Assessing/Assessing_b0197e8e-7fa3-4259-9ef3-dfca342359c9.tif', 'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_5366f6fb-a466-41d1-9c2b-afd165802124.tif'}</t>
@@ -12139,7 +12139,7 @@
     <t>{'Assessing/Assessing_6fe83e09-9e84-4b89-9785-5c7f3c1ab266.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_aaf68fe9-b7c6-4220-9c75-deda2ce515b3.tif'}</t>
+    <t>{'Assessing/Assessing_aaf68fe9-b7c6-4220-9c75-deda2ce515b3.tif', 'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_1976d98b-983f-403c-9c7a-6c3223a8ac62.tif'}</t>
@@ -12310,7 +12310,7 @@
     <t>{'Assessing/Assessing_b25a9636-575d-4bcf-b355-9c342fb85a93.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-017_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_8ef7d97c-b756-4969-8433-033f85ef93da.tif'}</t>
+    <t>{'Assessing/Assessing_8ef7d97c-b756-4969-8433-033f85ef93da.tif', 'Assessing/Assessing_DFU_Patient_208-017_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_ca28c9d5-015c-442e-8ccc-9e0d73be1740.tif'}</t>
@@ -12400,7 +12400,7 @@
     <t>{'Assessing/Assessing_391ffc1f-4a1d-440a-a9cd-c0fe7d823912.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_1fede89a-86a0-4d46-a8b2-553b9d4e012b_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_1fede89a-86a0-4d46-a8b2-553b9d4e012b.tif'}</t>
+    <t>{'Assessing/Assessing_1fede89a-86a0-4d46-a8b2-553b9d4e012b.tif', 'Assessing/Assessing_1fede89a-86a0-4d46-a8b2-553b9d4e012b_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_06ee0177-7a24-44a2-bd76-ed8b32fa1326.tif'}</t>
@@ -12421,7 +12421,7 @@
     <t>{'Assessing/Assessing_e2c3c5a4-1c5e-4547-be69-cf9addbff778.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba.tif', 'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_f4b84b48-7e3f-406b-8497-b3031decdcd9.tif'}</t>
@@ -12502,7 +12502,7 @@
     <t>{'Assessing/Assessing_e24f6ce1-a0c9-45e1-8fd1-39c4a2a08482.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a_DFU_Patient_209-003_Left_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a.tif'}</t>
+    <t>{'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a.tif', 'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a_DFU_Patient_209-003_Left_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_95eb9264-3305-469e-80a0-7a367abd46e4.tif'}</t>
@@ -12667,7 +12667,7 @@
     <t>{'Assessing/Assessing_c57c1857-0d0f-4534-aa06-05b63679224a.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab.tif', 'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab_DFU_Patient_209-005_Right_Plantar_1_ZW_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab_DFU_Patient_209-005_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_0db8a01c-7b0e-4d50-858e-f1de8144534f.tif'}</t>
@@ -12784,7 +12784,7 @@
     <t>{'Assessing/Assessing_e5b3e55d-c648-4244-a040-f491727c1b1d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_2834b538-5928-4748-9b17-d626ebe70424.tif', 'Assessing/Assessing_2834b538-5928-4748-9b17-d626ebe70424_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_2834b538-5928-4748-9b17-d626ebe70424_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_2834b538-5928-4748-9b17-d626ebe70424.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_3f5dbafe-3134-4739-b6c1-c1e0340a359a.tif'}</t>
@@ -12802,7 +12802,7 @@
     <t>{'Assessing/Assessing_f3d5f466-ab69-4c35-a9d3-1d3adfc88fcb.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84.tif', 'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_82dbe9b8-cfce-46fe-a0b7-cf21f04e384e.tif'}</t>
@@ -12826,7 +12826,7 @@
     <t>{'Assessing/Assessing_f47d8507-1b86-4632-ae37-87783c0071bf.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27_DFU_Patient_209-007_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27.tif'}</t>
+    <t>{'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27.tif', 'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27_DFU_Patient_209-007_Right_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_e2067c38-6f25-46b6-b787-331c26ddd2af.tif'}</t>
@@ -12922,7 +12922,7 @@
     <t>{'Assessing/Assessing_c5f2246d-b0b4-4aa8-952c-d8d8cca81b84.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_22c1e366-30e6-428c-be81-b186db7437db.tif', 'Assessing/Assessing_22c1e366-30e6-428c-be81-b186db7437db_DFU_Patient_209-008_Right_Plantar_1_ZW_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_22c1e366-30e6-428c-be81-b186db7437db_DFU_Patient_209-008_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_22c1e366-30e6-428c-be81-b186db7437db.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_fe5b873f-9f5f-490f-b6aa-8ea8b5ddfbc7.tif'}</t>
@@ -13495,7 +13495,7 @@
     <t>{'Assessing/Assessing_70d6d983-25f6-4747-b2a3-5cc5bba9d2a6.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3_DFU_Patient_211-03_Left_Plantar_1_CA_Assessing.png', 'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3.tif'}</t>
+    <t>{'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3.tif', 'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3_DFU_Patient_211-03_Left_Plantar_1_CA_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_1f7c9cfc-bc89-47fb-a2fa-c5259ef52160.tif'}</t>

--- a/Documents/dfu_latest_match_validation.xlsx
+++ b/Documents/dfu_latest_match_validation.xlsx
@@ -11119,7 +11119,7 @@
     <t>{'Assessing/Assessing_d46cac2b-a24d-4268-8571-895188abe4fc.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_206-004_Left_Plantar_1_LM_Assessing.png', 'Assessing/Assessing_92f5adf5-4156-4124-837a-d2a5705357de.tif'}</t>
+    <t>{'Assessing/Assessing_92f5adf5-4156-4124-837a-d2a5705357de.tif', 'Assessing/Assessing_DFU_Patient_206-004_Left_Plantar_1_LM_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_b7642d0b-2f71-4e81-8e1b-332b84cfdaa2.tif'}</t>
@@ -11311,7 +11311,7 @@
     <t>{'Assessing/Assessing_7a62a94b-c40d-4138-b5f9-279451a26852.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1.tif', 'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1_DFU_Patient_207-001_Right_PlantarToes_1_IMB_Assessing.png', 'Assessing/Assessing_ef3cfbb8-4faa-460e-be88-d4ff2303a7f1.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_d15bbb8c-db25-4234-b050-1607968da39b.tif'}</t>
@@ -11329,7 +11329,7 @@
     <t>{'Assessing/Assessing_6bbb5bf3-b208-43d2-8245-0cb545669a48.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace.tif', 'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace_DFU_Patient_207-001_Right_PlantarToes_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace_DFU_Patient_207-001_Right_PlantarToes_1_IB_Assessing.png', 'Assessing/Assessing_6fc81ceb-f229-4b29-924e-9fd370c22ace.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_dd20244e-778d-45df-92ee-b8dc68da0762.tif'}</t>
@@ -11428,7 +11428,7 @@
     <t>{'Assessing/Assessing_3e44c4aa-cbab-4018-9853-b88531b3bbce.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b_DFU_Patient_207-002_Right_Plantar_1_IMB_Assessing.png', 'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b.tif'}</t>
+    <t>{'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b.tif', 'Assessing/Assessing_d28467b3-420d-4dfe-9099-2f953ee3c75b_DFU_Patient_207-002_Right_Plantar_1_IMB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_2d79afc1-1242-49b2-b2d1-42c97ce8cbd2.tif'}</t>
@@ -11575,7 +11575,7 @@
     <t>{'Assessing/Assessing_4476155f-0f9e-4ccd-b120-72e926168125.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_5d4381e1-3c93-4ae6-a361-7f6ab4c03204.tif'}</t>
+    <t>{'Assessing/Assessing_5d4381e1-3c93-4ae6-a361-7f6ab4c03204.tif', 'Assessing/Assessing_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_710fffc2-5be3-4ca5-a232-af08dc2107d3.tif'}</t>
@@ -11647,7 +11647,7 @@
     <t>{'Assessing/Assessing_cc93bac9-0016-4298-b86b-77363549713c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_4a4074c2-84b0-4329-beda-ad16cfee1c05.tif', 'Assessing/Assessing_4a4074c2-84b0-4329-beda-ad16cfee1c05_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_4a4074c2-84b0-4329-beda-ad16cfee1c05_DFU_Patient_207-008_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_4a4074c2-84b0-4329-beda-ad16cfee1c05.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_923b108f-c96e-4eb4-915d-eb655b6d40f4.tif'}</t>
@@ -11695,7 +11695,7 @@
     <t>{'Assessing/Assessing_0094031f-4693-490a-b518-d72edf3651b0.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a.tif', 'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_6c6cd368-0da5-4ed3-8e3e-0141e847670a.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_78fbe015-0a67-4483-82fb-005fcdf26e55.tif'}</t>
@@ -11707,7 +11707,7 @@
     <t>{'Assessing/Assessing_6c9ddffd-9e65-4f4d-8ba1-8bb31ebc0fb2.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946.tif', 'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946_DFU_Patient_207-009_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_ed8c4ff1-07bc-4c9f-a570-1145a2cbf946.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_64a227a1-32ab-44e5-b440-fbbdae6bf89b.tif'}</t>
@@ -11773,7 +11773,7 @@
     <t>{'Assessing/Assessing_b8facd26-b1ae-40cd-b747-577b88948c0f.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1.tif', 'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1_DFU_Patient_208-012_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1_DFU_Patient_208-012_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_bba2e8aa-8e30-4c4d-95ee-b0a3a91c72b1.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_2c7d5b11-4c1f-48c2-8bd6-744fd5458614.tif'}</t>
@@ -11791,7 +11791,7 @@
     <t>{'Assessing/Assessing_de4bff4c-d97b-4939-964a-c19565aa4fbd.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_1eb26495-77e6-4491-8a30-167052f1dc0a.tif', 'Assessing/Assessing_1eb26495-77e6-4491-8a30-167052f1dc0a_DFU_Patient_208-001_Right_Plantar_1_IMB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_1eb26495-77e6-4491-8a30-167052f1dc0a_DFU_Patient_208-001_Right_Plantar_1_IMB_Assessing.png', 'Assessing/Assessing_1eb26495-77e6-4491-8a30-167052f1dc0a.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_55e10380-1e2a-4950-88ca-b170255d174a.tif'}</t>
@@ -11878,7 +11878,7 @@
     <t>{'Assessing/Assessing_624aed99-3c23-4010-a03a-e8ae012a5a9d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_a71b20a3-aaea-4e2c-b1ed-d4ccea217c90.tif', 'Assessing/Assessing_a71b20a3-aaea-4e2c-b1ed-d4ccea217c90_DFU_Patient_208-001_Right_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_a71b20a3-aaea-4e2c-b1ed-d4ccea217c90_DFU_Patient_208-001_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_a71b20a3-aaea-4e2c-b1ed-d4ccea217c90.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_4a8022e1-9f4f-454e-89a9-f3aa348a52ce.tif'}</t>
@@ -12028,7 +12028,7 @@
     <t>{'Assessing/Assessing_d6d25b29-0aeb-4f1d-8598-424d6c96096d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_1e33474f-e488-48b0-86e2-14f40df94823.tif', 'Assessing/Assessing_1e33474f-e488-48b0-86e2-14f40df94823_DFU_Patient_208-002_Right_PlantarToes_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_1e33474f-e488-48b0-86e2-14f40df94823_DFU_Patient_208-002_Right_PlantarToes_1_IB_Assessing.png', 'Assessing/Assessing_1e33474f-e488-48b0-86e2-14f40df94823.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_ab457ac1-500f-4707-b75f-92ec5da5b725.tif'}</t>
@@ -12094,7 +12094,7 @@
     <t>{'Assessing/Assessing_bc3d058a-a341-4870-ba3d-8b029805948c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5.tif', 'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5_DFU_Patient_208-005_Right_Plantar_1_BR_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5_DFU_Patient_208-005_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_5dd200f0-37a6-4f33-83ef-20effd5746f5.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_74f840ad-2bdb-417f-bd1a-cf8d5b683abe.tif'}</t>
@@ -12148,7 +12148,7 @@
     <t>{'Assessing/Assessing_2f23ed7e-2bc9-4d93-840b-decd30c04863.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c.tif', 'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_50cf1791-5fb8-4ae6-bcbd-46979223465c.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_22232daa-f865-46d6-b8fe-6756ce9022e7.tif'}</t>
@@ -12166,7 +12166,7 @@
     <t>{'Assessing/Assessing_b441550c-d3e5-44d2-b3c0-47e529426a0d.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_62edb1f7-33a8-4493-ac46-2b154dbab904.tif'}</t>
+    <t>{'Assessing/Assessing_62edb1f7-33a8-4493-ac46-2b154dbab904.tif', 'Assessing/Assessing_DFU_Patient_208-006_Right_Plantar_1_BR_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_01fba1a3-675b-415f-8c54-474e6c0c5a8b.tif'}</t>
@@ -12199,7 +12199,7 @@
     <t>{'Assessing/Assessing_df7a116f-d873-4811-ae13-d5d7ae25e1ca.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160.tif', 'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_4d0af7ee-d3c3-4841-8c75-aaff7abbd160.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_476c24c0-5a74-4519-a076-f77d76aefeaf_DFU_Patient_208-007_Right_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_476c24c0-5a74-4519-a076-f77d76aefeaf.tif'}</t>
@@ -12334,7 +12334,7 @@
     <t>{'Assessing/Assessing_d6f7fe31-79c5-4856-8856-dcfc4e4feda2.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18.tif'}</t>
+    <t>{'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18.tif', 'Assessing/Assessing_7eebc0a3-3432-4b1e-b986-3d3bd9c6fc18_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_eb13dad7-bffb-4edf-b786-3daeac51f112.tif'}</t>
@@ -12343,7 +12343,7 @@
     <t>{'Assessing/Assessing_ba01ed70-96bb-4274-9d0e-2dea7832a3a3.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_c62f3341-c9dd-4b52-807b-c1aaa694653d.tif'}</t>
+    <t>{'Assessing/Assessing_c62f3341-c9dd-4b52-807b-c1aaa694653d.tif', 'Assessing/Assessing_DFU_Patient_208-009_Right_Plantar_1_BR_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_2e7ff5c3-8b96-44b5-a469-c68bdc8c92f9.tif'}</t>
@@ -12382,7 +12382,7 @@
     <t>{'Assessing/Assessing_ad4a119f-23f8-411a-a0ff-f496509fff6b.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_5c3770b1-0845-41c9-9c28-b70b0d998711.tif', 'Assessing/Assessing_5c3770b1-0845-41c9-9c28-b70b0d998711_DFU_Patient_208-010_Left_Plantar_1_BR_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_5c3770b1-0845-41c9-9c28-b70b0d998711_DFU_Patient_208-010_Left_Plantar_1_BR_Assessing.png', 'Assessing/Assessing_5c3770b1-0845-41c9-9c28-b70b0d998711.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_17f10a6a-bee7-45ac-ba27-50062caab8ad.tif'}</t>
@@ -12538,7 +12538,7 @@
     <t>{'Assessing/Assessing_dd1ca48c-ab9e-41c4-b4ff-a55b77c07f42.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_b0197e8e-7fa3-4259-9ef3-dfca342359c9.tif'}</t>
+    <t>{'Assessing/Assessing_b0197e8e-7fa3-4259-9ef3-dfca342359c9.tif', 'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_5366f6fb-a466-41d1-9c2b-afd165802124.tif'}</t>
@@ -12565,7 +12565,7 @@
     <t>{'Assessing/Assessing_6fe83e09-9e84-4b89-9785-5c7f3c1ab266.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_aaf68fe9-b7c6-4220-9c75-deda2ce515b3.tif', 'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_DFU_Patient_208-013_Left_Plantar_1_IB_Assessing.png', 'Assessing/Assessing_aaf68fe9-b7c6-4220-9c75-deda2ce515b3.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_1976d98b-983f-403c-9c7a-6c3223a8ac62.tif'}</t>
@@ -12790,7 +12790,7 @@
     <t>{'Assessing/Assessing_3b09186d-2cb1-4117-a499-bb466605f563.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_5ba48a52-db67-4d45-b806-0027882bbe4f.tif', 'Assessing/Assessing_5ba48a52-db67-4d45-b806-0027882bbe4f_DFU_Patient_209-001_Right_Plantar_2_AW_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_5ba48a52-db67-4d45-b806-0027882bbe4f_DFU_Patient_209-001_Right_Plantar_2_AW_Assessing.png', 'Assessing/Assessing_5ba48a52-db67-4d45-b806-0027882bbe4f.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_a4001045-c85c-4f89-9863-79ad8ada28d1.tif'}</t>
@@ -12847,7 +12847,7 @@
     <t>{'Assessing/Assessing_e2c3c5a4-1c5e-4547-be69-cf9addbff778.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba.tif'}</t>
+    <t>{'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba.tif', 'Assessing/Assessing_a56ebf29-7ec3-494b-988c-914597918dba_DFU_Patient_209-002_Left_Plantar_1_SF_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_f4b84b48-7e3f-406b-8497-b3031decdcd9.tif'}</t>
@@ -12928,7 +12928,7 @@
     <t>{'Assessing/Assessing_e24f6ce1-a0c9-45e1-8fd1-39c4a2a08482.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a_DFU_Patient_209-003_Left_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a.tif'}</t>
+    <t>{'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a.tif', 'Assessing/Assessing_04fc88b2-d5c7-4fb7-9f0c-fc6bd1ce158a_DFU_Patient_209-003_Left_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_95eb9264-3305-469e-80a0-7a367abd46e4.tif'}</t>
@@ -12985,7 +12985,7 @@
     <t>{'Assessing/Assessing_faf4cef9-fbb2-421c-9b83-0f435d79e938.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_89acb484-eaf5-4c0b-a24d-0f6b310c1c38_DFU_Patient_209-004_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_89acb484-eaf5-4c0b-a24d-0f6b310c1c38.tif'}</t>
+    <t>{'Assessing/Assessing_89acb484-eaf5-4c0b-a24d-0f6b310c1c38.tif', 'Assessing/Assessing_89acb484-eaf5-4c0b-a24d-0f6b310c1c38_DFU_Patient_209-004_Right_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_cfa3808f-ab7b-4ef9-b469-6fae9e737e92.tif'}</t>
@@ -13093,7 +13093,7 @@
     <t>{'Assessing/Assessing_c57c1857-0d0f-4534-aa06-05b63679224a.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab_DFU_Patient_209-005_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab.tif'}</t>
+    <t>{'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab.tif', 'Assessing/Assessing_d0badad8-a8ec-4336-ab0d-fab9ad25cbab_DFU_Patient_209-005_Right_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_0db8a01c-7b0e-4d50-858e-f1de8144534f.tif'}</t>
@@ -13228,7 +13228,7 @@
     <t>{'Assessing/Assessing_f3d5f466-ab69-4c35-a9d3-1d3adfc88fcb.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png', 'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84.tif'}</t>
+    <t>{'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84.tif', 'Assessing/Assessing_e07a2db8-ab19-4fb7-bbd9-f8e29565ac84_DFU_Patient_209-007_Right_Plantar_1_SF_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_82dbe9b8-cfce-46fe-a0b7-cf21f04e384e.tif'}</t>
@@ -13252,7 +13252,7 @@
     <t>{'Assessing/Assessing_f47d8507-1b86-4632-ae37-87783c0071bf.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27_DFU_Patient_209-007_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27.tif'}</t>
+    <t>{'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27.tif', 'Assessing/Assessing_75072b30-1387-4d02-954e-2c9a4300af27_DFU_Patient_209-007_Right_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_e2067c38-6f25-46b6-b787-331c26ddd2af.tif'}</t>
@@ -13723,7 +13723,7 @@
     <t>{'Assessing/Assessing_a1efd5e0-796a-4ccc-83fb-cd061ba3bc31.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_40ced7de-59b4-4f82-b0ec-904c48a487e4_DFU_Patient_209-012_Right_Plantar_1_ZW_Assessing.png', 'Assessing/Assessing_40ced7de-59b4-4f82-b0ec-904c48a487e4.tif'}</t>
+    <t>{'Assessing/Assessing_40ced7de-59b4-4f82-b0ec-904c48a487e4.tif', 'Assessing/Assessing_40ced7de-59b4-4f82-b0ec-904c48a487e4_DFU_Patient_209-012_Right_Plantar_1_ZW_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_42979ee4-f6ee-453d-82a6-4c34a2331e87.tif'}</t>
@@ -13759,7 +13759,7 @@
     <t>{'Assessing/Assessing_e6046fad-3c48-4be1-a0eb-de9e2f810f29.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_b5e8921b-da08-4619-acc4-04d11b19ba4a_DFU_Patient_209-013_Right_Plantar_1_HI_Assessing.png', 'Assessing/Assessing_b5e8921b-da08-4619-acc4-04d11b19ba4a.tif'}</t>
+    <t>{'Assessing/Assessing_b5e8921b-da08-4619-acc4-04d11b19ba4a.tif', 'Assessing/Assessing_b5e8921b-da08-4619-acc4-04d11b19ba4a_DFU_Patient_209-013_Right_Plantar_1_HI_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_baeaa544-6651-423d-b57c-a4af0becaaf9.tif'}</t>
@@ -13912,10 +13912,10 @@
     <t>{'Assessing/Assessing_df82f71c-f84b-4223-8b93-c96960da9471.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_e219d493-6ae8-4b4b-bfe3-8907947754d5.tif', 'Assessing/Assessing_e219d493-6ae8-4b4b-bfe3-8907947754d5_DFU_Patient_001_Right_Plantar_1_VZ_Assessing.png'}</t>
-  </si>
-  <si>
-    <t>{'Assessing/Assessing_f39dca85-0331-4c0b-8d05-8699727c944a.tif', 'Assessing/Assessing_f39dca85-0331-4c0b-8d05-8699727c944a_DFU_Patient_001_Right_Plantar_1_VZ_Assessing.png'}</t>
+    <t>{'Assessing/Assessing_e219d493-6ae8-4b4b-bfe3-8907947754d5_DFU_Patient_001_Right_Plantar_1_VZ_Assessing.png', 'Assessing/Assessing_e219d493-6ae8-4b4b-bfe3-8907947754d5.tif'}</t>
+  </si>
+  <si>
+    <t>{'Assessing/Assessing_f39dca85-0331-4c0b-8d05-8699727c944a_DFU_Patient_001_Right_Plantar_1_VZ_Assessing.png', 'Assessing/Assessing_f39dca85-0331-4c0b-8d05-8699727c944a.tif'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_ee47318e-b80d-4ef9-b2d1-ac67e2ba5ab4.tif'}</t>
@@ -14002,7 +14002,7 @@
     <t>{'Assessing/Assessing_70bb44e7-5fa7-43ba-84b3-793e688f5b9c.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502_DFU_Patient_004_Right_Plantar_1_VZ_Assessing.png', 'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif'}</t>
+    <t>{'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502.tif', 'Assessing/Assessing_e6a9e408-15a8-4e6f-917a-8b7438ba2502_DFU_Patient_004_Right_Plantar_1_VZ_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_f3318584-16e5-4bf6-a327-05ccc85ac0b6.tif'}</t>
@@ -14020,7 +14020,7 @@
     <t>{'Assessing/Assessing_70d6d983-25f6-4747-b2a3-5cc5bba9d2a6.tif'}</t>
   </si>
   <si>
-    <t>{'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3_DFU_Patient_211-03_Left_Plantar_1_CA_Assessing.png', 'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3.tif'}</t>
+    <t>{'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3.tif', 'Assessing/Assessing_cc8d8e46-7ff6-4670-8ea1-d7f194cd4ea3_DFU_Patient_211-03_Left_Plantar_1_CA_Assessing.png'}</t>
   </si>
   <si>
     <t>{'Assessing/Assessing_1f7c9cfc-bc89-47fb-a2fa-c5259ef52160.tif'}</t>
